--- a/example.xlsx
+++ b/example.xlsx
@@ -8,32 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pechka\Desktop\GAZPROM_Internship_linear_regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B119F6-9165-4703-AAFC-C3D1001FD3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F816F893-F9FA-43FB-A490-8E6B50272FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26220" yWindow="4110" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Значения X</t>
   </si>
   <si>
     <t>Значения Y</t>
-  </si>
-  <si>
-    <t>Значение Коэффициента A (при X = 0)</t>
   </si>
 </sst>
 </file>
@@ -371,14 +377,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
@@ -388,91 +394,86 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B4" s="2">
-        <v>16</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="B5" s="2">
-        <v>25</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>125</v>
+        <v>5.4</v>
       </c>
       <c r="B6" s="2">
-        <v>1136</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>245.45</v>
+        <v>6.7</v>
       </c>
       <c r="B7" s="2">
-        <v>545</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>376.57</v>
+        <v>7.2</v>
       </c>
       <c r="B8" s="2">
-        <v>857.47</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>53</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B9" s="2">
-        <v>25</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>22</v>
+        <v>9.4</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="B11" s="2">
-        <v>257</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9</v>
+        <v>11.1</v>
       </c>
     </row>
   </sheetData>
